--- a/artfynd/A 33191-2022.xlsx
+++ b/artfynd/A 33191-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY12"/>
+  <dimension ref="A1:AY13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1959,6 +1959,119 @@
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>111826663</v>
+      </c>
+      <c r="B13" t="n">
+        <v>90668</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>788</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Gul taggsvamp</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Hydnellum geogenium</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Fr.) Banker</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Färgelanda, Dls</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>334977.3169877924</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6509731.962975406</v>
+      </c>
+      <c r="S13" t="n">
+        <v>25</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Färgelanda</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Dalsland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Järbo</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Christine Bryngelsson</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Christine Bryngelsson</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 33191-2022.xlsx
+++ b/artfynd/A 33191-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY13"/>
+  <dimension ref="A1:AY12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1959,119 +1959,6 @@
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>111826663</v>
-      </c>
-      <c r="B13" t="n">
-        <v>90668</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>788</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Gul taggsvamp</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Hydnellum geogenium</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>(Fr.) Banker</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Färgelanda, Dls</t>
-        </is>
-      </c>
-      <c r="Q13" t="n">
-        <v>334977.3169877924</v>
-      </c>
-      <c r="R13" t="n">
-        <v>6509731.962975406</v>
-      </c>
-      <c r="S13" t="n">
-        <v>25</v>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>Västra Götaland</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>Färgelanda</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>Dalsland</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>Järbo</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AD13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT13" t="inlineStr"/>
-      <c r="AW13" t="inlineStr">
-        <is>
-          <t>Christine Bryngelsson</t>
-        </is>
-      </c>
-      <c r="AX13" t="inlineStr">
-        <is>
-          <t>Christine Bryngelsson</t>
-        </is>
-      </c>
-      <c r="AY13" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 33191-2022.xlsx
+++ b/artfynd/A 33191-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY12"/>
+  <dimension ref="A1:AY13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1959,6 +1959,122 @@
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>111826663</v>
+      </c>
+      <c r="B13" t="n">
+        <v>90668</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>788</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Gul taggsvamp</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Hydnellum geogenium</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Fr.) Banker</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Färgelanda, Dls</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>334977.3169877924</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6509731.962975406</v>
+      </c>
+      <c r="S13" t="n">
+        <v>25</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Färgelanda</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Dalsland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Järbo</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Christine Bryngelsson</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Christine Bryngelsson, Samuel Sjöberg</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 33191-2022.xlsx
+++ b/artfynd/A 33191-2022.xlsx
@@ -2004,10 +2004,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>334977.3169877924</v>
+        <v>334977</v>
       </c>
       <c r="R13" t="n">
-        <v>6509731.962975406</v>
+        <v>6509732</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2037,19 +2037,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">

--- a/artfynd/A 33191-2022.xlsx
+++ b/artfynd/A 33191-2022.xlsx
@@ -1964,7 +1964,7 @@
         <v>111826663</v>
       </c>
       <c r="B13" t="n">
-        <v>90668</v>
+        <v>90802</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>

--- a/artfynd/A 33191-2022.xlsx
+++ b/artfynd/A 33191-2022.xlsx
@@ -1964,7 +1964,7 @@
         <v>111826663</v>
       </c>
       <c r="B13" t="n">
-        <v>90802</v>
+        <v>90816</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
